--- a/Model_Comparision.xlsx
+++ b/Model_Comparision.xlsx
@@ -9,15 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="wts" sheetId="2" r:id="rId2"/>
+    <sheet name="delta_wts" sheetId="7" r:id="rId3"/>
+    <sheet name="cutoff" sheetId="8" r:id="rId4"/>
+    <sheet name="quintile" sheetId="10" r:id="rId5"/>
+    <sheet name="delta_cutoff" sheetId="9" r:id="rId6"/>
+    <sheet name="quintileComp" sheetId="11" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet7!$A$1:$AA$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">delta_cutoff!$A$1:$AA$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">delta_wts!$A$1:$AA$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">quintileComp!$A$1:$AA$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="50">
   <si>
     <t>Average</t>
   </si>
@@ -147,18 +153,59 @@
   <si>
     <t>Fields</t>
   </si>
+  <si>
+    <t>0.0_0.0_0.9_0.1_0.1</t>
+  </si>
+  <si>
+    <t>0.0_0.0_0.9_0.1_0.2</t>
+  </si>
+  <si>
+    <t>0.0_0.0_0.9_0.1_0.3</t>
+  </si>
+  <si>
+    <t>0.0_0.0_0.9_0.1_0.4</t>
+  </si>
+  <si>
+    <t>0.0_0.0_0.9_0.1_0.5</t>
+  </si>
+  <si>
+    <t>0.0_0.0_0.9_0.1_0.6</t>
+  </si>
+  <si>
+    <t>0.0_0.0_0.9_0.1_0</t>
+  </si>
+  <si>
+    <t>0.0_0.0_0.9_0.1_0.0</t>
+  </si>
+  <si>
+    <t>0.0_0.0_0.9_0.1_1.0</t>
+  </si>
+  <si>
+    <t>0.0_0.0_0.9_0.1_1.5</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -196,17 +243,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +547,7 @@
   <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AO26"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3766,7 +3823,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6739,8 +6796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8509,4 +8566,6387 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AK26"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>6.8</v>
+      </c>
+      <c r="C2">
+        <v>6.1</v>
+      </c>
+      <c r="D2">
+        <v>14.6</v>
+      </c>
+      <c r="E2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2">
+        <v>7.5</v>
+      </c>
+      <c r="H2">
+        <v>6.1</v>
+      </c>
+      <c r="I2">
+        <v>14.6</v>
+      </c>
+      <c r="J2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>6.1</v>
+      </c>
+      <c r="N2">
+        <v>14.6</v>
+      </c>
+      <c r="O2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2">
+        <v>7.3999999999999897</v>
+      </c>
+      <c r="S2">
+        <v>6.1</v>
+      </c>
+      <c r="T2">
+        <v>14.6</v>
+      </c>
+      <c r="U2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2">
+        <v>6.3</v>
+      </c>
+      <c r="X2">
+        <v>6.1</v>
+      </c>
+      <c r="Y2">
+        <v>14.6</v>
+      </c>
+      <c r="Z2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2">
+        <v>6.3</v>
+      </c>
+      <c r="AC2">
+        <v>6.1</v>
+      </c>
+      <c r="AD2">
+        <v>14.6</v>
+      </c>
+      <c r="AE2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG2">
+        <v>6.3</v>
+      </c>
+      <c r="AH2">
+        <v>6.1</v>
+      </c>
+      <c r="AI2">
+        <v>14.6</v>
+      </c>
+      <c r="AJ2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>8.13450312873859</v>
+      </c>
+      <c r="C3">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="D3">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="E3">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>8.0604555533636209</v>
+      </c>
+      <c r="H3">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="I3">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="J3">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3">
+        <v>7.9473363093224103</v>
+      </c>
+      <c r="M3">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="N3">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="O3">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="P3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3">
+        <v>8.0524400898268507</v>
+      </c>
+      <c r="S3">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="T3">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="U3">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3">
+        <v>8.0900124218283</v>
+      </c>
+      <c r="X3">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="Y3">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="Z3">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3">
+        <v>8.0900124218283</v>
+      </c>
+      <c r="AC3">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="AD3">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="AE3">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG3">
+        <v>7.7758619374248301</v>
+      </c>
+      <c r="AH3">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="AI3">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="AJ3">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.80554890940189094</v>
+      </c>
+      <c r="C4">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="D4">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="E4">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4">
+        <v>0.90836777107587996</v>
+      </c>
+      <c r="H4">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="I4">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="J4">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>0.97663730681356598</v>
+      </c>
+      <c r="M4">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="N4">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="O4">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="P4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4">
+        <v>0.89883438354977796</v>
+      </c>
+      <c r="S4">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="T4">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="U4">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="V4" t="s">
+        <v>42</v>
+      </c>
+      <c r="W4">
+        <v>0.75778042780772104</v>
+      </c>
+      <c r="X4">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="Y4">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="Z4">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4">
+        <v>0.75778042780772104</v>
+      </c>
+      <c r="AC4">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="AD4">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="AE4">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG4">
+        <v>0.78720572758765694</v>
+      </c>
+      <c r="AH4">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="AI4">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="AJ4">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.69</v>
+      </c>
+      <c r="D5">
+        <v>1.159</v>
+      </c>
+      <c r="E5">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5">
+        <v>1.754</v>
+      </c>
+      <c r="H5">
+        <v>1.69</v>
+      </c>
+      <c r="I5">
+        <v>1.159</v>
+      </c>
+      <c r="J5">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>1.671</v>
+      </c>
+      <c r="M5">
+        <v>1.69</v>
+      </c>
+      <c r="N5">
+        <v>1.159</v>
+      </c>
+      <c r="O5">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="S5">
+        <v>1.69</v>
+      </c>
+      <c r="T5">
+        <v>1.159</v>
+      </c>
+      <c r="U5">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="V5" t="s">
+        <v>42</v>
+      </c>
+      <c r="W5">
+        <v>2.323</v>
+      </c>
+      <c r="X5">
+        <v>1.69</v>
+      </c>
+      <c r="Y5">
+        <v>1.159</v>
+      </c>
+      <c r="Z5">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5">
+        <v>2.323</v>
+      </c>
+      <c r="AC5">
+        <v>1.69</v>
+      </c>
+      <c r="AD5">
+        <v>1.159</v>
+      </c>
+      <c r="AE5">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG5">
+        <v>1.76</v>
+      </c>
+      <c r="AH5">
+        <v>1.69</v>
+      </c>
+      <c r="AI5">
+        <v>1.159</v>
+      </c>
+      <c r="AJ5">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>7.4729999999999999</v>
+      </c>
+      <c r="C6">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="D6">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="E6">
+        <v>13.35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6">
+        <v>7.4580000000000002</v>
+      </c>
+      <c r="H6">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="I6">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="J6">
+        <v>13.35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="M6">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="N6">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="O6">
+        <v>13.35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6">
+        <v>9.3650000000000002</v>
+      </c>
+      <c r="S6">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="T6">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="U6">
+        <v>13.35</v>
+      </c>
+      <c r="V6" t="s">
+        <v>42</v>
+      </c>
+      <c r="W6">
+        <v>10.526</v>
+      </c>
+      <c r="X6">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="Y6">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="Z6">
+        <v>13.35</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6">
+        <v>10.526</v>
+      </c>
+      <c r="AC6">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="AD6">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="AE6">
+        <v>13.35</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG6">
+        <v>6.242</v>
+      </c>
+      <c r="AH6">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="AI6">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="AJ6">
+        <v>13.35</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>54.4</v>
+      </c>
+      <c r="C7">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E7">
+        <v>66.7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>54.4</v>
+      </c>
+      <c r="H7">
+        <v>68</v>
+      </c>
+      <c r="I7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="J7">
+        <v>66.7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>54.4</v>
+      </c>
+      <c r="M7">
+        <v>68</v>
+      </c>
+      <c r="N7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="O7">
+        <v>66.7</v>
+      </c>
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7">
+        <v>53.2</v>
+      </c>
+      <c r="S7">
+        <v>68</v>
+      </c>
+      <c r="T7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="U7">
+        <v>66.7</v>
+      </c>
+      <c r="V7" t="s">
+        <v>42</v>
+      </c>
+      <c r="W7">
+        <v>50.6</v>
+      </c>
+      <c r="X7">
+        <v>68</v>
+      </c>
+      <c r="Y7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="Z7">
+        <v>66.7</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7">
+        <v>50.6</v>
+      </c>
+      <c r="AC7">
+        <v>68</v>
+      </c>
+      <c r="AD7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AE7">
+        <v>66.7</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG7">
+        <v>58.199999999999903</v>
+      </c>
+      <c r="AH7">
+        <v>68</v>
+      </c>
+      <c r="AI7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="AJ7">
+        <v>66.7</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1.708</v>
+      </c>
+      <c r="C8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E8">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8">
+        <v>1.86</v>
+      </c>
+      <c r="H8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J8">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="M8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="N8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="O8">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="P8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="T8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="U8">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="V8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W8">
+        <v>1.9</v>
+      </c>
+      <c r="X8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="Y8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8">
+        <v>1.9</v>
+      </c>
+      <c r="AC8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="AD8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AE8">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG8">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="AH8">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="AI8">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="AJ8">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D9">
+        <v>1.724</v>
+      </c>
+      <c r="E9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="H9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I9">
+        <v>1.724</v>
+      </c>
+      <c r="J9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9">
+        <v>1.042</v>
+      </c>
+      <c r="M9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.724</v>
+      </c>
+      <c r="O9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="P9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="S9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="T9">
+        <v>1.724</v>
+      </c>
+      <c r="U9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="V9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W9">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="X9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>1.724</v>
+      </c>
+      <c r="Z9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="AC9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="AD9">
+        <v>1.724</v>
+      </c>
+      <c r="AE9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG9">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="AH9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="AI9">
+        <v>1.724</v>
+      </c>
+      <c r="AJ9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>0.86113691005733395</v>
+      </c>
+      <c r="C10">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="D10">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="E10">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10">
+        <v>0.97188729901437299</v>
+      </c>
+      <c r="H10">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="I10">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="J10">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10">
+        <v>1.0512991456196601</v>
+      </c>
+      <c r="M10">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="N10">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="O10">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="P10" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10">
+        <v>0.96608785925977403</v>
+      </c>
+      <c r="S10">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="T10">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="U10">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="V10" t="s">
+        <v>42</v>
+      </c>
+      <c r="W10">
+        <v>0.81484192926882404</v>
+      </c>
+      <c r="X10">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="Y10">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="Z10">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10">
+        <v>0.81484192926882404</v>
+      </c>
+      <c r="AC10">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="AD10">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="AE10">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG10">
+        <v>0.83315998587595097</v>
+      </c>
+      <c r="AH10">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="AI10">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="AJ10">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="C11">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D11">
+        <v>1.724</v>
+      </c>
+      <c r="E11">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I11">
+        <v>1.724</v>
+      </c>
+      <c r="J11">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>1.042</v>
+      </c>
+      <c r="M11">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N11">
+        <v>1.724</v>
+      </c>
+      <c r="O11">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="S11">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="T11">
+        <v>1.724</v>
+      </c>
+      <c r="U11">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="V11" t="s">
+        <v>42</v>
+      </c>
+      <c r="W11">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="X11">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="Y11">
+        <v>1.724</v>
+      </c>
+      <c r="Z11">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="AC11">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="AD11">
+        <v>1.724</v>
+      </c>
+      <c r="AE11">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG11">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="AH11">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="AI11">
+        <v>1.724</v>
+      </c>
+      <c r="AJ11">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0.68440993362055103</v>
+      </c>
+      <c r="C12">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="D12">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="E12">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12">
+        <v>0.69718491126035698</v>
+      </c>
+      <c r="H12">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="I12">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="J12">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12">
+        <v>0.666388431977186</v>
+      </c>
+      <c r="M12">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="N12">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="O12">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="P12" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12">
+        <v>0.68077161258788799</v>
+      </c>
+      <c r="S12">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="T12">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="U12">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="V12" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12">
+        <v>0.67911348598710597</v>
+      </c>
+      <c r="X12">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="Y12">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="Z12">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12">
+        <v>0.67911348598710597</v>
+      </c>
+      <c r="AC12">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="AD12">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="AE12">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG12">
+        <v>0.68891439866406401</v>
+      </c>
+      <c r="AH12">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="AI12">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="AJ12">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2.1575612058615402E-3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="D13">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13">
+        <v>2.6908874904352899E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="I13">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="J13">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13">
+        <v>3.1785005553851601E-3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="N13">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="O13">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="P13" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13">
+        <v>2.70620467192802E-3</v>
+      </c>
+      <c r="S13" s="1">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="T13">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="U13">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W13">
+        <v>1.8489442669289899E-3</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="Y13">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="Z13">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13">
+        <v>1.8489442669289899E-3</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="AD13">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="AE13">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG13">
+        <v>1.77281495500371E-3</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="AI13">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="AJ13">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>0.35530832090796199</v>
+      </c>
+      <c r="C14">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="D14">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="E14">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>0.37639104638995602</v>
+      </c>
+      <c r="H14">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="I14">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="J14">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14">
+        <v>0.35305683308633301</v>
+      </c>
+      <c r="M14">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="N14">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="O14">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="P14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14">
+        <v>0.35921584558876002</v>
+      </c>
+      <c r="S14">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="T14">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="U14">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="V14" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14">
+        <v>0.35411232337909498</v>
+      </c>
+      <c r="X14">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="Y14">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="Z14">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14">
+        <v>0.35411232337909498</v>
+      </c>
+      <c r="AC14">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="AD14">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="AE14">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG14">
+        <v>0.39525762600901099</v>
+      </c>
+      <c r="AH14">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="AI14">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="AJ14">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>0.32634648107151698</v>
+      </c>
+      <c r="C15">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="D15">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="E15">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15">
+        <v>0.20990975345516</v>
+      </c>
+      <c r="H15">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="I15">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="J15">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="K15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>0.14099396933053199</v>
+      </c>
+      <c r="M15">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="N15">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="O15">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="P15" t="s">
+        <v>41</v>
+      </c>
+      <c r="R15">
+        <v>0.21291166355188301</v>
+      </c>
+      <c r="S15">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="T15">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="U15">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="V15" t="s">
+        <v>42</v>
+      </c>
+      <c r="W15">
+        <v>0.39744751599183098</v>
+      </c>
+      <c r="X15">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="Y15">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="Z15">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15">
+        <v>0.39744751599183098</v>
+      </c>
+      <c r="AC15">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="AD15">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="AE15">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG15">
+        <v>0.383463235358668</v>
+      </c>
+      <c r="AH15">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="AI15">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="AJ15">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>0.98779592786117498</v>
+      </c>
+      <c r="C16">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="D16">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="E16">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16">
+        <v>1.2643737266886701</v>
+      </c>
+      <c r="H16">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="I16">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="J16">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>1.4873961991614</v>
+      </c>
+      <c r="M16">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="N16">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="O16">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="P16" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16">
+        <v>1.2560054015259501</v>
+      </c>
+      <c r="S16">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="T16">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="U16">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="V16" t="s">
+        <v>42</v>
+      </c>
+      <c r="W16">
+        <v>0.85092856191449495</v>
+      </c>
+      <c r="X16">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="Y16">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="Z16">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16">
+        <v>0.85092856191449495</v>
+      </c>
+      <c r="AC16">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="AD16">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="AE16">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG16">
+        <v>0.876539567266158</v>
+      </c>
+      <c r="AH16">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="AI16">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="AJ16">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>8.2601692075240294</v>
+      </c>
+      <c r="C17">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="D17">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="E17">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <v>8.3785593071446591</v>
+      </c>
+      <c r="H17">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="I17">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="J17">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>9.1742041980301003</v>
+      </c>
+      <c r="M17">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="N17">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="O17">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="P17" t="s">
+        <v>41</v>
+      </c>
+      <c r="R17">
+        <v>8.5801562029162692</v>
+      </c>
+      <c r="S17">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="T17">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="U17">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="V17" t="s">
+        <v>42</v>
+      </c>
+      <c r="W17">
+        <v>9.3815877415709394</v>
+      </c>
+      <c r="X17">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="Y17">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="Z17">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17">
+        <v>9.3815877415709394</v>
+      </c>
+      <c r="AC17">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="AD17">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="AE17">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG17">
+        <v>7.3768992284587798</v>
+      </c>
+      <c r="AH17">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="AI17">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="AJ17">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>7.8165114710979102</v>
+      </c>
+      <c r="C18">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="D18">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="E18">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18">
+        <v>7.8313491328900504</v>
+      </c>
+      <c r="H18">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="I18">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="J18">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18">
+        <v>7.3463458578919596</v>
+      </c>
+      <c r="M18">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="N18">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="O18">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="P18" t="s">
+        <v>41</v>
+      </c>
+      <c r="R18">
+        <v>7.2929361528929499</v>
+      </c>
+      <c r="S18">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="T18">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="U18">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="V18" t="s">
+        <v>42</v>
+      </c>
+      <c r="W18">
+        <v>7.3044256642802301</v>
+      </c>
+      <c r="X18">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="Y18">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="Z18">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18">
+        <v>7.3044256642802301</v>
+      </c>
+      <c r="AC18">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="AD18">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="AE18">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG18">
+        <v>7.8125567457399701</v>
+      </c>
+      <c r="AH18">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="AI18">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="AJ18">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>5.8222757435713399</v>
+      </c>
+      <c r="C19">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="D19">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="E19">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19">
+        <v>7.6209549307893498</v>
+      </c>
+      <c r="H19">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="I19">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="J19">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19">
+        <v>8.51379086712282</v>
+      </c>
+      <c r="M19">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="N19">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="O19">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="P19" t="s">
+        <v>41</v>
+      </c>
+      <c r="R19">
+        <v>7.6889668634284103</v>
+      </c>
+      <c r="S19">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="T19">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="U19">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="V19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19">
+        <v>6.3216438052141797</v>
+      </c>
+      <c r="X19">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="Y19">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="Z19">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB19">
+        <v>6.3216438052141797</v>
+      </c>
+      <c r="AC19">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="AD19">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="AE19">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG19">
+        <v>5.4364039785260196</v>
+      </c>
+      <c r="AH19">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="AI19">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="AJ19">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>7.2158570854209403</v>
+      </c>
+      <c r="C20">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="D20">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="E20">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="F20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20">
+        <v>6.9756084957802402</v>
+      </c>
+      <c r="H20">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="I20">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="J20">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20">
+        <v>6.57527689471409</v>
+      </c>
+      <c r="M20">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="N20">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="O20">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="P20" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20">
+        <v>6.46827156942852</v>
+      </c>
+      <c r="S20">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="T20">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="U20">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="V20" t="s">
+        <v>42</v>
+      </c>
+      <c r="W20">
+        <v>6.5912015386434399</v>
+      </c>
+      <c r="X20">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="Y20">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="Z20">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB20">
+        <v>6.5912015386434399</v>
+      </c>
+      <c r="AC20">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="AD20">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="AE20">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG20">
+        <v>7.0323193524634799</v>
+      </c>
+      <c r="AH20">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="AI20">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="AJ20">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>7.7081313269256402</v>
+      </c>
+      <c r="C21">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="D21">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="E21">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21">
+        <v>8.9143128750173997</v>
+      </c>
+      <c r="H21">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="I21">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="J21">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L21">
+        <v>9.4983802070079193</v>
+      </c>
+      <c r="M21">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="N21">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="O21">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="P21" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21">
+        <v>8.7993579819851</v>
+      </c>
+      <c r="S21">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="T21">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="U21">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="V21" t="s">
+        <v>42</v>
+      </c>
+      <c r="W21">
+        <v>7.7678532665319304</v>
+      </c>
+      <c r="X21">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="Y21">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="Z21">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21">
+        <v>7.7678532665319304</v>
+      </c>
+      <c r="AC21">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="AD21">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="AE21">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG21">
+        <v>7.3640318704613001</v>
+      </c>
+      <c r="AH21">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="AI21">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="AJ21">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>8.4294362774574498</v>
+      </c>
+      <c r="C22">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="D22">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="E22">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="F22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22">
+        <v>8.2758036721029704</v>
+      </c>
+      <c r="H22">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="I22">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="J22">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="K22" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22">
+        <v>8.1211184724976508</v>
+      </c>
+      <c r="M22">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="N22">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="O22">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="P22" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22">
+        <v>8.2656921789198901</v>
+      </c>
+      <c r="S22">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="T22">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="U22">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="V22" t="s">
+        <v>42</v>
+      </c>
+      <c r="W22">
+        <v>8.3756435432991001</v>
+      </c>
+      <c r="X22">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="Y22">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="Z22">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB22">
+        <v>8.3756435432991001</v>
+      </c>
+      <c r="AC22">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="AD22">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="AE22">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG22">
+        <v>8.1050261357703501</v>
+      </c>
+      <c r="AH22">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="AI22">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="AJ22">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="C23">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="D23">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="E23">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="F23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="H23">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="I23">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="J23">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="M23">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="N23">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="O23">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="P23" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="S23">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="T23">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="U23">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="V23" t="s">
+        <v>42</v>
+      </c>
+      <c r="W23">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="X23">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="Y23">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="Z23">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB23">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="AC23">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="AD23">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="AE23">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG23">
+        <v>8.1662626566877794</v>
+      </c>
+      <c r="AH23">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="AI23">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="AJ23">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>-4.4580690258227396</v>
+      </c>
+      <c r="C24">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="D24">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="E24">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24">
+        <v>-4.4580690258227396</v>
+      </c>
+      <c r="H24">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="I24">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="J24">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="K24" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24">
+        <v>-4.3261030296221596</v>
+      </c>
+      <c r="M24">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="N24">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="O24">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="P24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24">
+        <v>-4.8543269916871497</v>
+      </c>
+      <c r="S24">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="T24">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="U24">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="V24" t="s">
+        <v>42</v>
+      </c>
+      <c r="W24">
+        <v>-4.8543269916871497</v>
+      </c>
+      <c r="X24">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="Y24">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="Z24">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB24">
+        <v>-4.8543269916871497</v>
+      </c>
+      <c r="AC24">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="AD24">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="AE24">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG24">
+        <v>-4.2336806721695499</v>
+      </c>
+      <c r="AH24">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="AI24">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="AJ24">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>18.4705811352575</v>
+      </c>
+      <c r="C25">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="D25">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="E25">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25">
+        <v>20.374123318451801</v>
+      </c>
+      <c r="H25">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="I25">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="J25">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="K25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25">
+        <v>19.743287184402899</v>
+      </c>
+      <c r="M25">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="N25">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="O25">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="P25" t="s">
+        <v>41</v>
+      </c>
+      <c r="R25">
+        <v>19.931854689849501</v>
+      </c>
+      <c r="S25">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="T25">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="U25">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="V25" t="s">
+        <v>42</v>
+      </c>
+      <c r="W25">
+        <v>18.500797044468801</v>
+      </c>
+      <c r="X25">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="Y25">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="Z25">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB25">
+        <v>18.500797044468801</v>
+      </c>
+      <c r="AC25">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="AD25">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="AE25">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG25">
+        <v>17.490822003895801</v>
+      </c>
+      <c r="AH25">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="AI25">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="AJ25">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>-2.2131118496951299</v>
+      </c>
+      <c r="C26">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="D26">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="E26">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26">
+        <v>-2.1999290409955798</v>
+      </c>
+      <c r="H26">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="I26">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="J26">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="K26" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26">
+        <v>-2.09222654912785</v>
+      </c>
+      <c r="M26">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="N26">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="O26">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="P26" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26">
+        <v>-3.95486482790254</v>
+      </c>
+      <c r="S26">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="T26">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="U26">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="V26" t="s">
+        <v>42</v>
+      </c>
+      <c r="W26">
+        <v>-5.2320352683945703</v>
+      </c>
+      <c r="X26">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="Y26">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="Z26">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB26">
+        <v>-5.2320352683945703</v>
+      </c>
+      <c r="AC26">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="AD26">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="AE26">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG26">
+        <v>-0.74311112674934598</v>
+      </c>
+      <c r="AH26">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="AI26">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="AJ26">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:U26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2">
+        <v>-1.0999999999999901</v>
+      </c>
+      <c r="M2" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="O2" s="2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="P2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="R2" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="T2" s="2">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.9125435346669502</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8.9354274955075592</v>
+      </c>
+      <c r="H3" s="2">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="I3" s="2">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2">
+        <v>11.7723181427552</v>
+      </c>
+      <c r="M3" s="2">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="N3" s="2">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="O3" s="2">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="P3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>10.999262342590001</v>
+      </c>
+      <c r="R3" s="2">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="S3" s="2">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="T3" s="2">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-3.11054830790621E-2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-1.0648096748413301E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-0.10849464524612699</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-0.485794173912306</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="S4" s="2">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="U4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.159</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="2">
+        <v>4.3440000000000003</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.159</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5.585</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1.159</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="P5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>7.649</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1.159</v>
+      </c>
+      <c r="T5" s="2">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="U5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>14.494999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="D6" s="2">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2">
+        <v>16.599</v>
+      </c>
+      <c r="H6" s="2">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="I6" s="2">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="J6" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="2">
+        <v>28.25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="N6" s="2">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="O6" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>30.297000000000001</v>
+      </c>
+      <c r="R6" s="2">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="S6" s="2">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="T6" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="E7" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>68</v>
+      </c>
+      <c r="I7" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="J7" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="2">
+        <v>45.6</v>
+      </c>
+      <c r="M7" s="2">
+        <v>68</v>
+      </c>
+      <c r="N7" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="O7" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>68</v>
+      </c>
+      <c r="S7" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="T7" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="U7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.359</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.325</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2.5169999999999999</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="T8" s="2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="U8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.724</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1.724</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.724</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="P9" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1.724</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="U9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-3.2144454545361703E-2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="F10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-1.0926643885108701E-3</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" s="2">
+        <v>-0.115869136292504</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="P10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>-0.52276539269452804</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="U10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.724</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1.724</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1.724</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="P11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="S11" s="2">
+        <v>1.724</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.65345271656402004</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.55065861138263905</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.49771173867855101</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="P12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0.41053475786333099</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="S12" s="2">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="U12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-3.2002334692195701E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-2.4200811146831E-3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="2">
+        <v>-2.9737883129550501E-3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="N13" s="2">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="P13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>-6.0980802310366799E-3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="S13" s="2">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="T13" s="2">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="U13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.344521371781148</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.18608504261647499</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="2">
+        <v>8.0442542025275995E-2</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="P14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>5.9879446680771303E-2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="U14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.13784805239209499</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.37035764965881002</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="I15" s="2">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="K15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.43221146568739199</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="N15" s="2">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="P15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>9.0476901723093001E-2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="S15" s="2">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="U15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-1.4994420236453301</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-0.90107607434009096</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="2">
+        <v>-0.78955648773626197</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="N16" s="2">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="P16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>-1.71440568271344</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="S16" s="2">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="T16" s="2">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="U16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5.4495206359014698</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="E17" s="2">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="2">
+        <v>6.2490857833863602</v>
+      </c>
+      <c r="H17" s="2">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="I17" s="2">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="J17" s="2">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1.03361208803931</v>
+      </c>
+      <c r="M17" s="2">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="N17" s="2">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="O17" s="2">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="P17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>2.2599383180528201</v>
+      </c>
+      <c r="R17" s="2">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="S17" s="2">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="T17" s="2">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="U17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3.9786583915061402</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4.6435311047202399</v>
+      </c>
+      <c r="H18" s="2">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="I18" s="2">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="J18" s="2">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="K18" t="s">
+        <v>43</v>
+      </c>
+      <c r="L18" s="2">
+        <v>3.9394768909014002</v>
+      </c>
+      <c r="M18" s="2">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="N18" s="2">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="O18" s="2">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="P18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>2.1038916198559798</v>
+      </c>
+      <c r="R18" s="2">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="S18" s="2">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="T18" s="2">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="U18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.42911111174719</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="D19" s="2">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="E19" s="2">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="2">
+        <v>2.2928294836791698</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="I19" s="2">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="J19" s="2">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="2">
+        <v>4.2313210525467504</v>
+      </c>
+      <c r="M19" s="2">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="N19" s="2">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="O19" s="2">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="P19" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>-1.8946173415285099</v>
+      </c>
+      <c r="R19" s="2">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="S19" s="2">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="T19" s="2">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="U19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2">
+        <v>8.0534013510579801</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="2">
+        <v>8.8032330787449808</v>
+      </c>
+      <c r="H20" s="2">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="I20" s="2">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="J20" s="2">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="K20" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="2">
+        <v>9.7230459179968598</v>
+      </c>
+      <c r="M20" s="2">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="N20" s="2">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="O20" s="2">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="P20" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>10.085057053508301</v>
+      </c>
+      <c r="R20" s="2">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="S20" s="2">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="T20" s="2">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="U20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1.38763138248017</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="D21" s="2">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.7328451915354</v>
+      </c>
+      <c r="H21" s="2">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="I21" s="2">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="J21" s="2">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="K21" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.0991377053481901</v>
+      </c>
+      <c r="M21" s="2">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="N21" s="2">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="O21" s="2">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="P21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>-4.7038497400983301</v>
+      </c>
+      <c r="R21" s="2">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="S21" s="2">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="T21" s="2">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="U21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2">
+        <v>8.3333201879757208</v>
+      </c>
+      <c r="C22" s="2">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9.4858904705297</v>
+      </c>
+      <c r="H22" s="2">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="I22" s="2">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="K22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="2">
+        <v>12.3411353603223</v>
+      </c>
+      <c r="M22" s="2">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="N22" s="2">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="O22" s="2">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="P22" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>12.0613589715313</v>
+      </c>
+      <c r="R22" s="2">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="S22" s="2">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="T22" s="2">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="U22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2">
+        <v>7.1356405441805002</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="D23" s="2">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7.1605799390336298</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="I23" s="2">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="J23" s="2">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="K23" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="2">
+        <v>9.6765462753950402</v>
+      </c>
+      <c r="M23" s="2">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="N23" s="2">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="O23" s="2">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="P23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>9.6765462753950402</v>
+      </c>
+      <c r="R23" s="2">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="S23" s="2">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="T23" s="2">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="U23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-5.3105010769233898</v>
+      </c>
+      <c r="C24" s="2">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="D24" s="2">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="2">
+        <v>-5.75662194693221</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="I24" s="2">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="J24" s="2">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="2">
+        <v>-8.5395395744419798</v>
+      </c>
+      <c r="M24" s="2">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="N24" s="2">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="O24" s="2">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="P24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>-9.6773996082272298</v>
+      </c>
+      <c r="R24" s="2">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="S24" s="2">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="T24" s="2">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="U24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10.496834183530501</v>
+      </c>
+      <c r="C25" s="2">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="D25" s="2">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="E25" s="2">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="2">
+        <v>10.3366594122507</v>
+      </c>
+      <c r="H25" s="2">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="I25" s="2">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="J25" s="2">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="K25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L25" s="2">
+        <v>12.4661420059163</v>
+      </c>
+      <c r="M25" s="2">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="N25" s="2">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="O25" s="2">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="P25" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>5.1491747764132603</v>
+      </c>
+      <c r="R25" s="2">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="S25" s="2">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="T25" s="2">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="U25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-11.221567882111</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="2">
+        <v>-11.915844898711899</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="J26" s="2">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="K26" t="s">
+        <v>43</v>
+      </c>
+      <c r="L26" s="2">
+        <v>-11.4280742805937</v>
+      </c>
+      <c r="M26" s="2">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="N26" s="2">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="O26" s="2">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="P26" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>-14.1157433978474</v>
+      </c>
+      <c r="R26" s="2">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="S26" s="2">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="T26" s="2">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="U26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA38"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.159</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="G2" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.724</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.724</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="M2" s="7">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="O2" s="2">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="P2" s="2">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="R2" s="2">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="S2" s="2">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="T2" s="2">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="U2" s="2">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="V2" s="2">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="W2" s="2">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="X2" s="2">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.7758619374248301</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.78720572758765694</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6.242</v>
+      </c>
+      <c r="G3" s="2">
+        <v>58.199999999999903</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.83315998587595097</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.68891439866406401</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1.77281495500371E-3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.39525762600901099</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.383463235358668</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.876539567266158</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>7.3768992284587798</v>
+      </c>
+      <c r="R3" s="2">
+        <v>7.8125567457399701</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5.4364039785260196</v>
+      </c>
+      <c r="T3" s="2">
+        <v>7.0323193524634799</v>
+      </c>
+      <c r="U3" s="2">
+        <v>7.3640318704613001</v>
+      </c>
+      <c r="V3" s="2">
+        <v>8.1050261357703501</v>
+      </c>
+      <c r="W3" s="2">
+        <v>8.1662626566877794</v>
+      </c>
+      <c r="X3" s="2">
+        <v>-4.2336806721695499</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>17.490822003895801</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>-0.74311112674934598</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="C4" s="2">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13.35</v>
+      </c>
+      <c r="G4" s="2">
+        <v>66.7</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="R4" s="2">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="S4" s="2">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="T4" s="2">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="U4" s="2">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="V4" s="2">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="W4" s="2">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="X4" s="2">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.13450312873859</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.80554890940189094</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7.4729999999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>54.4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.708</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.86113691005733395</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.68440993362055103</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2.1575612058615402E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.35530832090796199</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.32634648107151698</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.98779592786117498</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>8.2601692075240294</v>
+      </c>
+      <c r="R5" s="2">
+        <v>7.8165114710979102</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5.8222757435713399</v>
+      </c>
+      <c r="T5" s="2">
+        <v>7.2158570854209403</v>
+      </c>
+      <c r="U5" s="2">
+        <v>7.7081313269256402</v>
+      </c>
+      <c r="V5" s="2">
+        <v>8.4294362774574498</v>
+      </c>
+      <c r="W5" s="2">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="X5" s="2">
+        <v>-4.4580690258227396</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>18.4705811352575</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>-2.2131118496951299</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>8.0604555533636209</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.90836777107587996</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.754</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.4580000000000002</v>
+      </c>
+      <c r="G6" s="2">
+        <v>54.4</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.86</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.97188729901437299</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.69718491126035698</v>
+      </c>
+      <c r="M6" s="7">
+        <v>2.6908874904352899E-3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.37639104638995602</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.20990975345516</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1.2643737266886701</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>8.3785593071446591</v>
+      </c>
+      <c r="R6" s="2">
+        <v>7.8313491328900504</v>
+      </c>
+      <c r="S6" s="2">
+        <v>7.6209549307893498</v>
+      </c>
+      <c r="T6" s="2">
+        <v>6.9756084957802402</v>
+      </c>
+      <c r="U6" s="2">
+        <v>8.9143128750173997</v>
+      </c>
+      <c r="V6" s="2">
+        <v>8.2758036721029704</v>
+      </c>
+      <c r="W6" s="2">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="X6" s="2">
+        <v>-4.4580690258227396</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>20.374123318451801</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>-2.1999290409955798</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.9473363093224103</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.97663730681356598</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.671</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.6420000000000003</v>
+      </c>
+      <c r="G7" s="2">
+        <v>54.4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.042</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.0512991456196601</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.042</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.666388431977186</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3.1785005553851601E-3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.35305683308633301</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.14099396933053199</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.4873961991614</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>9.1742041980301003</v>
+      </c>
+      <c r="R7" s="2">
+        <v>7.3463458578919596</v>
+      </c>
+      <c r="S7" s="2">
+        <v>8.51379086712282</v>
+      </c>
+      <c r="T7" s="2">
+        <v>6.57527689471409</v>
+      </c>
+      <c r="U7" s="2">
+        <v>9.4983802070079193</v>
+      </c>
+      <c r="V7" s="2">
+        <v>8.1211184724976508</v>
+      </c>
+      <c r="W7" s="2">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="X7" s="2">
+        <v>-4.3261030296221596</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>19.743287184402899</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>-2.09222654912785</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="G8" s="2">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="M8" s="7">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="R8" s="2">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="S8" s="2">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="T8" s="2">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="U8" s="2">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="V8" s="2">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="W8" s="2">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="X8" s="2">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6">
+        <v>7.3999999999999897</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8.0524400898268507</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.89883438354977796</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.0259999999999998</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9.3650000000000002</v>
+      </c>
+      <c r="G9" s="2">
+        <v>53.2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1.9590000000000001</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.96608785925977403</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.68077161258788799</v>
+      </c>
+      <c r="M9" s="7">
+        <v>2.70620467192802E-3</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.35921584558876002</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.21291166355188301</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1.2560054015259501</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>8.5801562029162692</v>
+      </c>
+      <c r="R9" s="2">
+        <v>7.2929361528929499</v>
+      </c>
+      <c r="S9" s="2">
+        <v>7.6889668634284103</v>
+      </c>
+      <c r="T9" s="2">
+        <v>6.46827156942852</v>
+      </c>
+      <c r="U9" s="2">
+        <v>8.7993579819851</v>
+      </c>
+      <c r="V9" s="2">
+        <v>8.2656921789198901</v>
+      </c>
+      <c r="W9" s="2">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="X9" s="2">
+        <v>-4.8543269916871497</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>19.931854689849501</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>-3.95486482790254</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>8.0900124218283</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.75778042780772104</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.323</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10.526</v>
+      </c>
+      <c r="G10" s="2">
+        <v>50.6</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.81484192926882404</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.67911348598710597</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1.8489442669289899E-3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.35411232337909498</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.39744751599183098</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.85092856191449495</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>9.3815877415709394</v>
+      </c>
+      <c r="R10" s="2">
+        <v>7.3044256642802301</v>
+      </c>
+      <c r="S10" s="2">
+        <v>6.3216438052141797</v>
+      </c>
+      <c r="T10" s="2">
+        <v>6.5912015386434399</v>
+      </c>
+      <c r="U10" s="2">
+        <v>7.7678532665319304</v>
+      </c>
+      <c r="V10" s="2">
+        <v>8.3756435432991001</v>
+      </c>
+      <c r="W10" s="2">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="X10" s="2">
+        <v>-4.8543269916871497</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>18.500797044468801</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>-5.2320352683945703</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.0900124218283</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.75778042780772104</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.323</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10.526</v>
+      </c>
+      <c r="G11" s="2">
+        <v>50.6</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.81484192926882404</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.67911348598710597</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1.8489442669289899E-3</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.35411232337909498</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.39744751599183098</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.85092856191449495</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>9.3815877415709394</v>
+      </c>
+      <c r="R11" s="2">
+        <v>7.3044256642802301</v>
+      </c>
+      <c r="S11" s="2">
+        <v>6.3216438052141797</v>
+      </c>
+      <c r="T11" s="2">
+        <v>6.5912015386434399</v>
+      </c>
+      <c r="U11" s="2">
+        <v>7.7678532665319304</v>
+      </c>
+      <c r="V11" s="2">
+        <v>8.3756435432991001</v>
+      </c>
+      <c r="W11" s="2">
+        <v>8.4476690693419094</v>
+      </c>
+      <c r="X11" s="2">
+        <v>-4.8543269916871497</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>18.500797044468801</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>-5.2320352683945703</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:27" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="17" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="18" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="19" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="20" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="22" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="23" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="24" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="25" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="26" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="27" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="28" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="29" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="30" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="31" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="32" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="33" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="34" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="35" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="36" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="37" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="38" hidden="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A1:AA38">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Average"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A3:AA11">
+      <sortCondition ref="AA1:AA38"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9">
+        <v>14.6</v>
+      </c>
+      <c r="C2" s="9">
+        <v>9.7532474615867901</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1.4756159311525301</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1.159</v>
+      </c>
+      <c r="F2" s="9">
+        <v>8.4659999999999993</v>
+      </c>
+      <c r="G2" s="9">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1.724</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1.5702490536909901</v>
+      </c>
+      <c r="K2" s="9">
+        <v>1.724</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1.1548991186845201</v>
+      </c>
+      <c r="M2" s="9">
+        <v>5.8890916900711096E-3</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.72553542063624898</v>
+      </c>
+      <c r="O2" s="9">
+        <v>8.6229647418987999E-4</v>
+      </c>
+      <c r="P2" s="9">
+        <v>3.46769821540695</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>16.201075805873099</v>
+      </c>
+      <c r="R2" s="9">
+        <v>8.9973600816863009</v>
+      </c>
+      <c r="S2" s="9">
+        <v>12.4587923887967</v>
+      </c>
+      <c r="T2" s="9">
+        <v>10.3338006163359</v>
+      </c>
+      <c r="U2" s="9">
+        <v>13.060420797403699</v>
+      </c>
+      <c r="V2" s="9">
+        <v>9.7679120225256604</v>
+      </c>
+      <c r="W2" s="9">
+        <v>8.4734356521000507</v>
+      </c>
+      <c r="X2" s="9">
+        <v>-6.1496077941558802</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>28.674413469132102</v>
+      </c>
+      <c r="Z2" s="9">
+        <v>2.1288031820681899</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9">
+        <v>10.299999999999899</v>
+      </c>
+      <c r="C3" s="9">
+        <v>10.421533083692401</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.968186431327412</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="F3" s="9">
+        <v>13.35</v>
+      </c>
+      <c r="G3" s="9">
+        <v>66.7</v>
+      </c>
+      <c r="H3" s="9">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J3" s="9">
+        <v>1.0231878452143299</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="L3" s="9">
+        <v>1.34113071217608</v>
+      </c>
+      <c r="M3" s="9">
+        <v>1.8011211235454199E-3</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.86083674135274801</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.166982848606086</v>
+      </c>
+      <c r="P3" s="9">
+        <v>1.39514637605166</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>11.1768021557924</v>
+      </c>
+      <c r="R3" s="9">
+        <v>8.6973839567354307</v>
+      </c>
+      <c r="S3" s="9">
+        <v>9.3349849280560893</v>
+      </c>
+      <c r="T3" s="9">
+        <v>10.483856120028401</v>
+      </c>
+      <c r="U3" s="9">
+        <v>9.3446216051153108</v>
+      </c>
+      <c r="V3" s="9">
+        <v>10.0844688925438</v>
+      </c>
+      <c r="W3" s="9">
+        <v>7.6566694940388196</v>
+      </c>
+      <c r="X3" s="9">
+        <v>-9.2798946445990094</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>22.0093718043446</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>-1.38433537931101</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>7.3580519722714897</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1.69</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9.9819999999999993</v>
+      </c>
+      <c r="G4" s="9">
+        <v>68</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.79873951512031405</v>
+      </c>
+      <c r="K4" s="9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.999963241380603</v>
+      </c>
+      <c r="M4" s="9">
+        <v>2.94801837992438E-6</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.99999568500095404</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.55546370889452801</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.59218192619393695</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>8.1103381522754194</v>
+      </c>
+      <c r="R4" s="9">
+        <v>6.2324351338742803</v>
+      </c>
+      <c r="S4" s="9">
+        <v>5.1993741994379201</v>
+      </c>
+      <c r="T4" s="9">
+        <v>7.2883340422806704</v>
+      </c>
+      <c r="U4" s="9">
+        <v>5.7993123384041096</v>
+      </c>
+      <c r="V4" s="9">
+        <v>7.1240737691059497</v>
+      </c>
+      <c r="W4" s="9">
+        <v>4.6798050378251599</v>
+      </c>
+      <c r="X4" s="9">
+        <v>-5.8355326930126399</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>17.253016301024701</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>-3.2876797055490798</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>8.9354274955075592</v>
+      </c>
+      <c r="D5" s="2">
+        <v>-1.0648096748413301E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.3440000000000003</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16.599</v>
+      </c>
+      <c r="G5" s="2">
+        <v>44.3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.325</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-1.0926643885108701E-3</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.55065861138263905</v>
+      </c>
+      <c r="M5" s="2">
+        <v>-2.4200811146831E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.18608504261647499</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.37035764965881002</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-0.90107607434009096</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>6.2490857833863602</v>
+      </c>
+      <c r="R5" s="2">
+        <v>4.6435311047202399</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2.2928294836791698</v>
+      </c>
+      <c r="T5" s="2">
+        <v>8.8032330787449808</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1.7328451915354</v>
+      </c>
+      <c r="V5" s="2">
+        <v>9.4858904705297</v>
+      </c>
+      <c r="W5" s="2">
+        <v>7.1605799390336298</v>
+      </c>
+      <c r="X5" s="2">
+        <v>-5.75662194693221</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>10.3366594122507</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>-11.915844898711899</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.9125435346669502</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-3.11054830790621E-2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.7869999999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14.494999999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>43</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.359</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>-3.2144454545361703E-2</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.65345271656402004</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-3.2002334692195701E-3</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.344521371781148</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.13784805239209499</v>
+      </c>
+      <c r="P6" s="2">
+        <v>-1.4994420236453301</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5.4495206359014698</v>
+      </c>
+      <c r="R6" s="2">
+        <v>3.9786583915061402</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2.42911111174719</v>
+      </c>
+      <c r="T6" s="2">
+        <v>8.0534013510579801</v>
+      </c>
+      <c r="U6" s="2">
+        <v>1.38763138248017</v>
+      </c>
+      <c r="V6" s="2">
+        <v>8.3333201879757208</v>
+      </c>
+      <c r="W6" s="2">
+        <v>7.1356405441805002</v>
+      </c>
+      <c r="X6" s="2">
+        <v>-5.3105010769233898</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>10.496834183530501</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>-11.221567882111</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-1.0999999999999901</v>
+      </c>
+      <c r="C7" s="2">
+        <v>11.7723181427552</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-0.10849464524612699</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.585</v>
+      </c>
+      <c r="F7" s="2">
+        <v>28.25</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45.6</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>-0.115869136292504</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.49771173867855101</v>
+      </c>
+      <c r="M7" s="2">
+        <v>-2.9737883129550501E-3</v>
+      </c>
+      <c r="N7" s="2">
+        <v>8.0442542025275995E-2</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.43221146568739199</v>
+      </c>
+      <c r="P7" s="2">
+        <v>-0.78955648773626197</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.03361208803931</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3.9394768909014002</v>
+      </c>
+      <c r="S7" s="2">
+        <v>4.2313210525467504</v>
+      </c>
+      <c r="T7" s="2">
+        <v>9.7230459179968598</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1.0991377053481901</v>
+      </c>
+      <c r="V7" s="2">
+        <v>12.3411353603223</v>
+      </c>
+      <c r="W7" s="2">
+        <v>9.6765462753950402</v>
+      </c>
+      <c r="X7" s="2">
+        <v>-8.5395395744419798</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>12.4661420059163</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>-11.4280742805937</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10.999262342590001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>-0.485794173912306</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7.649</v>
+      </c>
+      <c r="F8" s="2">
+        <v>30.297000000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.5169999999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="J8" s="2">
+        <v>-0.52276539269452804</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.41053475786333099</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-6.0980802310366799E-3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>5.9879446680771303E-2</v>
+      </c>
+      <c r="O8" s="2">
+        <v>9.0476901723093001E-2</v>
+      </c>
+      <c r="P8" s="2">
+        <v>-1.71440568271344</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2.2599383180528201</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2.1038916198559798</v>
+      </c>
+      <c r="S8" s="2">
+        <v>-1.8946173415285099</v>
+      </c>
+      <c r="T8" s="2">
+        <v>10.085057053508301</v>
+      </c>
+      <c r="U8" s="2">
+        <v>-4.7038497400983301</v>
+      </c>
+      <c r="V8" s="2">
+        <v>12.0613589715313</v>
+      </c>
+      <c r="W8" s="2">
+        <v>9.6765462753950402</v>
+      </c>
+      <c r="X8" s="2">
+        <v>-9.6773996082272298</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>5.1491747764132603</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>-14.1157433978474</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AA8">
+    <sortState ref="A2:AA8">
+      <sortCondition descending="1" ref="U1:U8"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>